--- a/Movies_Data_Mapping.xlsx
+++ b/Movies_Data_Mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\Bootcamp\Project\project 2 data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\Bootcamp\Project\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F09ABD-CB7A-49DC-B465-57A64E777756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AF4FCE-4E82-48DE-9674-5271F5675D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06870EEF-AC2F-4F30-9147-FBE95D58FC39}"/>
   </bookViews>
@@ -48,27 +48,15 @@
     <t>Source Datatype</t>
   </si>
   <si>
-    <t>Source DB</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>target_db</t>
-  </si>
-  <si>
     <t>Business Rule</t>
   </si>
   <si>
-    <t>imdb.txt</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -79,9 +67,6 @@
   </si>
   <si>
     <t>imdb</t>
-  </si>
-  <si>
-    <t>netflix.txt</t>
   </si>
   <si>
     <t>netflix</t>
@@ -156,6 +141,21 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>movies_db</t>
+  </si>
+  <si>
+    <t>netflix_title.csv</t>
+  </si>
+  <si>
+    <t>IMDb movies.csv</t>
+  </si>
+  <si>
+    <t>Source File</t>
   </si>
 </sst>
 </file>
@@ -528,16 +528,16 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
@@ -547,7 +547,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -573,33 +573,33 @@
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -607,28 +607,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -636,28 +636,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -665,28 +665,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -694,28 +694,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -723,28 +723,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Movies_Data_Mapping.xlsx
+++ b/Movies_Data_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\Bootcamp\Project\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AF4FCE-4E82-48DE-9674-5271F5675D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F273A8-ABAB-41D4-8C2F-82A06B461A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06870EEF-AC2F-4F30-9147-FBE95D58FC39}"/>
+    <workbookView xWindow="-28920" yWindow="720" windowWidth="29040" windowHeight="15840" xr2:uid="{06870EEF-AC2F-4F30-9147-FBE95D58FC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Map" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>Source Table</t>
   </si>
@@ -79,22 +79,6 @@
   </si>
   <si>
     <t>avg_vote</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Drop duplicates and drop na values by </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Title. Then set title as index.</t>
-    </r>
   </si>
   <si>
     <t>release_year</t>
@@ -143,19 +127,72 @@
     <t>float</t>
   </si>
   <si>
+    <t>movies_db</t>
+  </si>
+  <si>
+    <t>netflix_title.csv</t>
+  </si>
+  <si>
+    <t>IMDb movies.csv</t>
+  </si>
+  <si>
+    <t>Source File</t>
+  </si>
+  <si>
     <t>csv</t>
   </si>
   <si>
-    <t>movies_db</t>
-  </si>
-  <si>
-    <t>netflix_title.csv</t>
-  </si>
-  <si>
-    <t>IMDb movies.csv</t>
-  </si>
-  <si>
-    <t>Source File</t>
+    <r>
+      <t xml:space="preserve">Drop duplicates and drop na values by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Title. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Then set </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as index.</t>
+    </r>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>numeric</t>
   </si>
 </sst>
 </file>
@@ -528,7 +565,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +584,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -578,10 +615,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -590,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -599,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -607,10 +644,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -619,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -628,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -636,19 +673,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -657,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -665,10 +702,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -677,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -686,7 +723,7 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -694,10 +731,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -706,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -715,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -723,19 +760,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -744,7 +781,7 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -760,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -768,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -776,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Movies_Data_Mapping.xlsx
+++ b/Movies_Data_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\Bootcamp\Project\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F273A8-ABAB-41D4-8C2F-82A06B461A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771D4432-CB48-422C-9042-03C77ED3E0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="720" windowWidth="29040" windowHeight="15840" xr2:uid="{06870EEF-AC2F-4F30-9147-FBE95D58FC39}"/>
+    <workbookView xWindow="1260" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{06870EEF-AC2F-4F30-9147-FBE95D58FC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Map" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Source Table</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>varchar</t>
-  </si>
-  <si>
-    <t>numeric</t>
   </si>
 </sst>
 </file>
@@ -565,7 +562,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K4">
         <v>2</v>
